--- a/stock_predictor_ai/data/company_sentiment_ready/TRGP_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/TRGP_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3662"/>
+  <dimension ref="A1:B3716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29737,6 +29737,438 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3663">
+      <c r="A3663" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B3663" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3664">
+      <c r="A3664" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B3664" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3665">
+      <c r="A3665" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B3665" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3666">
+      <c r="A3666" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B3666" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3667">
+      <c r="A3667" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B3667" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3668">
+      <c r="A3668" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B3668" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3669">
+      <c r="A3669" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B3669" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3670">
+      <c r="A3670" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B3670" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3671">
+      <c r="A3671" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B3671" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3672">
+      <c r="A3672" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B3672" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3673">
+      <c r="A3673" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B3673" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3674">
+      <c r="A3674" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B3674" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3675">
+      <c r="A3675" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B3675" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3676">
+      <c r="A3676" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B3676" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3677">
+      <c r="A3677" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B3677" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3678">
+      <c r="A3678" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B3678" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3679">
+      <c r="A3679" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B3679" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3680">
+      <c r="A3680" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B3680" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3681">
+      <c r="A3681" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B3681" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3682">
+      <c r="A3682" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B3682" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3683">
+      <c r="A3683" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B3683" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3684">
+      <c r="A3684" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B3684" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3685">
+      <c r="A3685" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B3685" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3686">
+      <c r="A3686" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B3686" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3687">
+      <c r="A3687" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B3687" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3688">
+      <c r="A3688" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B3688" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3689">
+      <c r="A3689" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B3689" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3690">
+      <c r="A3690" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B3690" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3691">
+      <c r="A3691" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B3691" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3692">
+      <c r="A3692" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B3692" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3693">
+      <c r="A3693" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B3693" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3694">
+      <c r="A3694" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B3694" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3695">
+      <c r="A3695" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B3695" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3696">
+      <c r="A3696" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B3696" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3697">
+      <c r="A3697" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B3697" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3698">
+      <c r="A3698" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B3698" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3699">
+      <c r="A3699" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B3699" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3700">
+      <c r="A3700" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B3700" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3701">
+      <c r="A3701" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B3701" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3702">
+      <c r="A3702" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B3702" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3703">
+      <c r="A3703" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B3703" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3704">
+      <c r="A3704" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B3704" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3705">
+      <c r="A3705" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B3705" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3706">
+      <c r="A3706" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B3706" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3707">
+      <c r="A3707" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B3707" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3708">
+      <c r="A3708" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B3708" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3709">
+      <c r="A3709" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B3709" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3710">
+      <c r="A3710" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B3710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3711">
+      <c r="A3711" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B3711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3712">
+      <c r="A3712" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B3712" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3713">
+      <c r="A3713" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B3713" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3714">
+      <c r="A3714" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B3714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3715">
+      <c r="A3715" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B3715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3716">
+      <c r="A3716" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B3716" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
